--- a/AMS_원장단요구사항.xlsx
+++ b/AMS_원장단요구사항.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihoan/Documents/git/flowedu-documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="26955" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항" sheetId="1" r:id="rId1"/>
     <sheet name="메뉴접근 및 조회 구분" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="157">
   <si>
     <t>1Depth</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -665,6 +678,10 @@
   </si>
   <si>
     <t>이름 뒤에 알파벳 붙이는 형태는 변경 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생관리1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -843,7 +860,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -901,12 +918,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -936,12 +953,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1147,22 +1164,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="15.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="63.625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="63.6640625" style="15" customWidth="1"/>
     <col min="7" max="7" width="50.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="48.6640625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>71</v>
       </c>
@@ -1185,7 +1202,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>113</v>
       </c>
@@ -1200,7 +1217,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="28" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>72</v>
       </c>
@@ -1220,7 +1237,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="6" t="s">
         <v>120</v>
@@ -1238,7 +1255,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="28" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="4" t="s">
         <v>15</v>
@@ -1256,7 +1273,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="28" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -1274,7 +1291,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="42" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
         <v>15</v>
@@ -1292,7 +1309,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="42" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="4" t="s">
         <v>77</v>
@@ -1310,7 +1327,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
         <v>15</v>
@@ -1328,7 +1345,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="42" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="4" t="s">
         <v>77</v>
@@ -1346,7 +1363,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="60" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="70" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="4" t="s">
         <v>15</v>
@@ -1364,13 +1381,13 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="42" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>127</v>
@@ -1382,7 +1399,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="4" t="s">
         <v>120</v>
@@ -1400,7 +1417,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="4" t="s">
         <v>77</v>
@@ -1418,7 +1435,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="6" t="s">
         <v>120</v>
@@ -1436,7 +1453,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="6" t="s">
         <v>46</v>
@@ -1454,7 +1471,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="28" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1468,7 +1485,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="36" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="42" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="4" t="s">
         <v>46</v>
@@ -1486,7 +1503,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="4" t="s">
         <v>144</v>
@@ -1504,7 +1521,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="84" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="4" t="s">
         <v>75</v>
@@ -1522,7 +1539,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="6" t="s">
         <v>91</v>
@@ -1538,7 +1555,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="4" t="s">
@@ -1552,7 +1569,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="36" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="42" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="4" t="s">
         <v>57</v>
@@ -1570,7 +1587,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="6" t="s">
         <v>109</v>
@@ -1586,7 +1603,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="4" t="s">
@@ -1600,7 +1617,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="28" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
         <v>138</v>
@@ -1616,7 +1633,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
         <v>150</v>
@@ -1630,7 +1647,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="8" t="s">
         <v>150</v>
@@ -1644,7 +1661,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="36" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="42" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>73</v>
       </c>
@@ -1662,7 +1679,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="36" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="42" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="4" t="s">
         <v>74</v>
@@ -1678,7 +1695,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="36" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="42" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="4" t="s">
         <v>104</v>
@@ -1696,7 +1713,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" s="4" t="s">
         <v>131</v>
@@ -1712,7 +1729,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>102</v>
       </c>
@@ -1741,15 +1758,15 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="15.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1763,12 +1780,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1779,37 +1796,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1817,17 +1834,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1838,12 +1855,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1851,17 +1868,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1872,17 +1889,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1893,17 +1910,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>43</v>
       </c>
@@ -1911,17 +1928,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>46</v>
       </c>
@@ -1929,32 +1946,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>57</v>
       </c>
@@ -1965,17 +1982,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>62</v>
       </c>
@@ -1983,22 +2000,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="s">
         <v>67</v>
       </c>
@@ -2016,7 +2033,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
